--- a/buildings.xlsx
+++ b/buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7714DFF5-A3D2-43DB-949C-76845FECA0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFFC8C5-8066-40B5-AA3A-429DAAA44DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,12 +256,6 @@
     <t>Impact and Outcome Metrics</t>
   </si>
   <si>
-    <t>Share of space heating met by heat pump</t>
-  </si>
-  <si>
-    <t>Reduction in space heating energy consumption relative to 2020</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -271,13 +265,19 @@
     <t>IPCC, Ar6</t>
   </si>
   <si>
-    <t>Increase in electrification of building energy demands relative to 2020</t>
+    <t>Percentage of space heating provided by heat pumps</t>
   </si>
   <si>
-    <t xml:space="preserve">Electricity share in total energy consumption </t>
+    <t>Percentage of total building energy use that comes from electricity</t>
   </si>
   <si>
-    <t xml:space="preserve">Fossil share in total energy consumption </t>
+    <t>Share of fossil fuels in total energy consumption of buildings</t>
+  </si>
+  <si>
+    <t>Growth in the share of building energy use powered by electricity, compared to 2020</t>
+  </si>
+  <si>
+    <t>Decrease in energy used for space heating, compared to 2020 levels</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -459,14 +459,8 @@
     <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,8 +468,8 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -486,7 +480,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,6 +494,9 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -39330,15 +39327,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F7EE26-260B-407D-8CB2-992CBCB60061}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="86.42578125" style="8" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="8"/>
     <col min="5" max="5" width="11" style="8" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="8" customWidth="1"/>
@@ -39346,264 +39343,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="12"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="25">
         <v>2022</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="25">
         <v>2030</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="25">
         <v>2040</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="15">
         <v>2045</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="25">
         <v>2050</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="12"/>
+      <c r="G3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="24">
+      <c r="A4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="20">
         <v>0.1</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="20">
         <v>0.25</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="20">
         <f>AVERAGE(C4,E4)</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="20">
         <v>0.4</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="12"/>
+      <c r="G4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>75</v>
+      <c r="A5" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="24">
+      <c r="C5" s="20">
         <v>0.17</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="20">
         <v>0.39</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="20">
         <v>0.47</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="20">
         <v>0.51</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.39</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0.72</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="24">
+        <v>0.46</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.62</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.78</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="27">
-        <v>0.15</v>
-      </c>
-      <c r="D6" s="27">
-        <v>0.39</v>
-      </c>
-      <c r="E6" s="28">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F6" s="27">
-        <v>0.72</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="28">
-        <v>0.46</v>
-      </c>
-      <c r="D7" s="28">
-        <v>0.62</v>
-      </c>
-      <c r="E7" s="28">
-        <v>0.7</v>
-      </c>
-      <c r="F7" s="28">
-        <v>0.78</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="30">
+      <c r="B8" s="21"/>
+      <c r="C8" s="26">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="27">
         <v>0.17</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="27">
         <v>0.12</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="27">
         <v>0.09</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="G8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="A9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
